--- a/spc/results/t01/M_0.25_k_0.05/omp_GAUSSIAN_30dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.25_k_0.05/omp_GAUSSIAN_30dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,606 +860,6 @@
         <v>172.9543613572751</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>171.4376322668473</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>169.8099670617367</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>168.2052199452125</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>166.7591222145743</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>165.0455492515374</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>163.6548293784933</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>162.285488047014</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>160.7611201889275</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>159.5779996181717</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>158.3694674358788</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>156.9646335189276</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>155.578498975561</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>154.1564437292281</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>152.7305391575693</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>151.1909643457591</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>149.9278157365575</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>148.6077430613251</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>147.2558129932234</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>145.8446298342375</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>144.7476654593184</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>143.5681490359305</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>142.4568320897749</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>141.1690006792536</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>139.9975927658197</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>138.6560918738977</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>137.5135425343612</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>136.3413071066352</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>135.203487592278</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>133.9360299163301</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>132.8295353205873</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>131.8106136489345</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>130.5797538016049</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>129.3976321221513</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>128.1849548700579</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>126.9816909442222</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>125.8414571138574</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>124.6184102677483</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>123.5841130437265</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122.481085057674</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>121.4448231626345</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>120.3755623071218</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>119.3658899838472</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>118.3012870703455</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>117.3707550007522</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>116.365073293225</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>115.3514420388248</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>114.3691712793543</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>113.2528036935371</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>112.2681516712601</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>111.3797548237153</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>110.4569188815144</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>109.5671238625992</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>108.650452402989</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>107.7901390445422</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>107.0182055772686</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>106.162617290302</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>105.3371914370677</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>104.506387302556</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>103.7913472923419</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>103.1402854847191</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>102.3724440482075</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>101.7092403352195</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>101.0245081073966</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>100.3452358134561</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>99.6044337277623</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>98.89998095249737</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>98.13316178946174</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>97.45150555627671</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>96.82725696064604</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>96.2435767018542</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>95.5989786887754</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>94.85591216556837</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>94.24949400916438</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>93.51050236388228</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>92.84821080009233</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>92.20436089928691</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>91.56190127542705</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>90.95394927471065</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>90.34121436148965</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>89.75446851825201</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>89.20924181426749</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>88.66164283730747</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>88.11482174173763</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>87.55255634540788</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>86.95293528658071</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>86.41562275841741</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>85.92117389290817</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>85.40781224602424</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>84.84757088897581</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>84.36210415811428</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>83.84660576886483</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>83.34301037088883</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>82.84545515652651</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>82.35259957341897</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>81.85792453348591</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>81.33355047539389</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>80.79338229667809</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>80.25919441605913</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>79.76503768699068</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>79.24179570606329</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>78.79831506939328</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>78.26526064450429</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>77.80751819104049</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>77.33730482004309</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>76.90611368385419</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>76.441843500286</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>76.03814639824756</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>75.5297978023773</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>75.03739636231921</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>74.56189182796761</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>74.1110245246838</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>73.66953961352016</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>73.17024641634164</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>72.73483867592952</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>72.29425981185103</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>71.80918468818331</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>71.3648704595763</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>70.8871725459769</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>70.46534329358003</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>70.07518772632918</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
